--- a/data/trans_dic/iP30B1_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B1_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>93,49%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>92,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>93,01%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>88,06; 96,04</t>
+          <t>89,62; 95,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,39; 96,62</t>
+          <t>89,03; 95,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,86; 95,64</t>
+          <t>90,78; 95,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>93,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>94,89%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>93,01%</t>
+          <t>94,14%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,62; 95,72</t>
+          <t>88,06; 96,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,03; 95,45</t>
+          <t>92,39; 96,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,78; 95,02</t>
+          <t>90,86; 95,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B1_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B1_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>85,23%</t>
+          <t>79,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>88,39%</t>
+          <t>81,91%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>86,85; 94,9</t>
+          <t>75,38; 91,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,11; 89,9</t>
+          <t>69,45; 87,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,84; 91,37</t>
+          <t>75,09; 86,96</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>93,01%</t>
+          <t>92,63%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>89,62; 95,72</t>
+          <t>90,06; 96,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>89,03; 95,45</t>
+          <t>87,43; 94,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,78; 95,02</t>
+          <t>89,9; 94,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>93,49%</t>
+          <t>95,23%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>95,09%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>95,16%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,06; 96,04</t>
+          <t>91,71; 97,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>92,39; 96,62</t>
+          <t>91,45; 97,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,86; 95,64</t>
+          <t>92,86; 96,79</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>94,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>92,97%</t>
+          <t>93,47%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,77; 94,91</t>
+          <t>85,25; 95,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,99; 94,31</t>
+          <t>91,63; 96,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91,22; 94,18</t>
+          <t>89,06; 95,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>93,08%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>92,85%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>92,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>90,16; 94,81</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>91,12; 94,45</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>91,13; 94,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
